--- a/prep_data/2025_scoring_offense.xlsx
+++ b/prep_data/2025_scoring_offense.xlsx
@@ -518,26 +518,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -552,47 +552,47 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9574468085106383</v>
+        <v>0.9482758620689655</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>394</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -604,90 +604,90 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>387</v>
+        <v>452</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9743589743589743</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>381</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -708,38 +708,38 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9387755102040817</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>379</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -748,31 +748,31 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.926829268292683</v>
+        <v>0.9767441860465116</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>376</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.925</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.9375</v>
       </c>
       <c r="N7" t="n">
         <v>2</v>
@@ -824,26 +824,26 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>376</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -864,47 +864,47 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>351</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -916,87 +916,87 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>334</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="N10" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.9705882352941176</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1</v>
-      </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>328</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1020,35 +1020,35 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.76</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>322</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C12" t="n">
         <v>14</v>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1072,44 +1072,44 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.8787878787878788</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>315</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1124,10 +1124,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.8125</v>
       </c>
       <c r="N13" t="n">
         <v>2</v>
@@ -1136,35 +1136,35 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>314</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1176,32 +1176,32 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9375</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9259259259259259</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>311</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
         <v>19</v>
@@ -1210,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1228,38 +1228,38 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>308</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1268,47 +1268,47 @@
         <v>1</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="N16" t="n">
         <v>2</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>308</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1332,35 +1332,35 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>307</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1369,34 +1369,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="M18" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>299</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1436,35 +1436,35 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>299</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1476,47 +1476,47 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.96875</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>289</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1528,31 +1528,31 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.8823529411764706</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.84375</v>
+      </c>
+      <c r="N21" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1</v>
-      </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>283</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22">
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C22" t="n">
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>0.76</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>282</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1644,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.9655172413793104</v>
+        <v>0.96875</v>
       </c>
       <c r="M23" t="n">
-        <v>0.92</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="N23" t="n">
         <v>1</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>281</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24">
@@ -1666,13 +1666,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M24" t="n">
-        <v>0.9375</v>
+        <v>0.85</v>
       </c>
       <c r="N24" t="n">
         <v>2</v>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>279</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25">
@@ -1718,19 +1718,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C25" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1748,71 +1748,71 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="M25" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.76</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>262</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C26" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="N26" t="n">
         <v>2</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="N26" t="n">
-        <v>5</v>
-      </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>256</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27">
@@ -1822,13 +1822,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C27" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="N27" t="n">
         <v>2</v>
@@ -1864,23 +1864,23 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1904,50 +1904,50 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.9583333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7931034482758621</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>252</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1956,35 +1956,35 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.8695652173913043</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>247</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>25</v>
       </c>
       <c r="C30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1993,10 +1993,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.9523809523809523</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>0.85</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
@@ -2020,20 +2020,20 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>223</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D31" t="n">
         <v>13</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2060,47 +2060,47 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="M31" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>206</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D32" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>2</v>
       </c>
-      <c r="G32" t="n">
-        <v>1</v>
-      </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2112,19 +2112,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>201</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33">
@@ -2134,13 +2134,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="M33" t="n">
         <v>0.7727272727272727</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>196</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
